--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3319.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3319.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.114410864869283</v>
+        <v>1.818993210792542</v>
       </c>
       <c r="B1">
-        <v>1.279738464475813</v>
+        <v>4.573708057403564</v>
       </c>
       <c r="C1">
-        <v>1.607684820268705</v>
+        <v>4.064336776733398</v>
       </c>
       <c r="D1">
-        <v>3.352566464419361</v>
+        <v>0.9051988124847412</v>
       </c>
       <c r="E1">
-        <v>7.497136019970368</v>
+        <v>0.4756152033805847</v>
       </c>
     </row>
   </sheetData>
